--- a/data/template_tidier.xlsx
+++ b/data/template_tidier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/checklist/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6342E64-3087-48B0-9518-BDB60D458098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C6342E64-3087-48B0-9518-BDB60D458098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E971712A-0930-49F4-A05B-DE25BC024021}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E040E2C-5B9D-4E22-ABB0-A1044F5D7699}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>section</t>
   </si>
   <si>
-    <t>item_number</t>
-  </si>
-  <si>
-    <t>item_text</t>
-  </si>
-  <si>
     <t>item_full_text</t>
   </si>
   <si>
@@ -110,15 +104,9 @@
     <t>What</t>
   </si>
   <si>
-    <t>Materials</t>
-  </si>
-  <si>
     <t>Materials: Describe any physical or informational materials used in the intervention, including those provided to participants or used in intervention delivery or in training of intervention providers. Provide information on where the materials can be accessed (e.g. online appendix, URL).</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
     <t>Procedures: Describe each of the procedures, activities, and/or processes used in the intervention, including any enabling or support activities.</t>
   </si>
   <si>
@@ -143,33 +131,9 @@
     <t>When and how much</t>
   </si>
   <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
     <t>Describe the number of times the intervention was delivered and over what period of time including the number of sessions, their schedule, and their duration, intensity or dose.</t>
   </si>
   <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>8c</t>
-  </si>
-  <si>
-    <t>Session time</t>
-  </si>
-  <si>
-    <t>8d</t>
-  </si>
-  <si>
-    <t>Overall duration</t>
-  </si>
-  <si>
     <t>Tailoring</t>
   </si>
   <si>
@@ -185,16 +149,58 @@
     <t>How well</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
     <t>Planned: If intervention adherence or fidelity was assessed, describe how and by whom, and if any strategies were used to maintain or improve fidelity, describe them.</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>Actual: If intervention adherence or fidelity was assessed, describe the extent to which the intervention was delivered as planned.</t>
+  </si>
+  <si>
+    <t>1. Brief name</t>
+  </si>
+  <si>
+    <t>2. Why</t>
+  </si>
+  <si>
+    <t>3. Materials</t>
+  </si>
+  <si>
+    <t>4. Procedures</t>
+  </si>
+  <si>
+    <t>5. Who provided</t>
+  </si>
+  <si>
+    <t>6. How</t>
+  </si>
+  <si>
+    <t>7. Where</t>
+  </si>
+  <si>
+    <t>8a. Intensity</t>
+  </si>
+  <si>
+    <t>8b. Frequency</t>
+  </si>
+  <si>
+    <t>8c. Session time</t>
+  </si>
+  <si>
+    <t>8d. Overall duration</t>
+  </si>
+  <si>
+    <t>9. Tailoring</t>
+  </si>
+  <si>
+    <t>10. Modifications</t>
+  </si>
+  <si>
+    <t>11. Planned</t>
+  </si>
+  <si>
+    <t>12. Actual</t>
+  </si>
+  <si>
+    <t>checklist_item</t>
   </si>
 </sst>
 </file>
@@ -546,287 +552,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A141CBE-622D-4683-96FE-E62AE2FB42CF}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
